--- a/TimerModel/TimerModel/Templates/Шаблон печати.xlsx
+++ b/TimerModel/TimerModel/Templates/Шаблон печати.xlsx
@@ -914,12 +914,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,13 +1013,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -947,70 +1025,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1022,9 +1070,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1040,59 +1085,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,88 +1427,88 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
       <c r="S1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="52"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
       <c r="L3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="58"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="55"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1544,55 +1544,55 @@
       <c r="K4" s="1">
         <v>10</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="84" t="s">
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="86"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="94"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="1">
         <v>1</v>
       </c>
@@ -1602,25 +1602,25 @@
       <c r="O5" s="16">
         <v>3</v>
       </c>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="89"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="95"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="62"/>
       <c r="M6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1630,9 +1630,9 @@
       <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="92"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
       <c r="S6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1695,87 +1695,87 @@
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="74"/>
+      <c r="G9" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="51"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
       <c r="S9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="52"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
       <c r="L11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56" t="s">
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="58"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="55"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -1811,55 +1811,55 @@
       <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="84" t="s">
+      <c r="N12" s="64"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="86"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="94"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="1">
         <v>1</v>
       </c>
@@ -1869,25 +1869,25 @@
       <c r="O13" s="16">
         <v>3</v>
       </c>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="89"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="95"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="2" t="s">
         <v>59</v>
       </c>
@@ -1897,9 +1897,9 @@
       <c r="O14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="49"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -1960,87 +1960,87 @@
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="83"/>
-      <c r="G17" s="49" t="s">
+      <c r="F17" s="74"/>
+      <c r="G17" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="51"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="59"/>
       <c r="S17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="56"/>
       <c r="K18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="52"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="38"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="53" t="s">
+      <c r="M19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="56" t="s">
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="55"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2076,55 +2076,55 @@
       <c r="K20" s="1">
         <v>10</v>
       </c>
-      <c r="L20" s="93" t="s">
+      <c r="L20" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="84" t="s">
+      <c r="N20" s="64"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="86"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="43"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="94"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="1">
         <v>1</v>
       </c>
@@ -2134,25 +2134,25 @@
       <c r="O21" s="16">
         <v>3</v>
       </c>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="89"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="46"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="95"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="2" t="s">
         <v>77</v>
       </c>
@@ -2162,9 +2162,9 @@
       <c r="O22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="49"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2225,87 +2225,87 @@
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="83"/>
-      <c r="G25" s="49" t="s">
+      <c r="F25" s="74"/>
+      <c r="G25" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="51"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="59"/>
       <c r="S25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="41" t="s">
+      <c r="L26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="52"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="38"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="53" t="s">
+      <c r="M27" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="54"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="56" t="s">
+      <c r="N27" s="51"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="58"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="55"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -2341,55 +2341,55 @@
       <c r="K28" s="1">
         <v>10</v>
       </c>
-      <c r="L28" s="93" t="s">
+      <c r="L28" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="47" t="s">
+      <c r="M28" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="59"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="84" t="s">
+      <c r="N28" s="64"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="86"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="43"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="94"/>
+      <c r="L29" s="61"/>
       <c r="M29" s="1">
         <v>1</v>
       </c>
@@ -2399,25 +2399,25 @@
       <c r="O29" s="16">
         <v>3</v>
       </c>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="89"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="46"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="95"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="62"/>
       <c r="M30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2427,9 +2427,9 @@
       <c r="O30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="49"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -2490,87 +2490,87 @@
       <c r="D33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="83"/>
-      <c r="G33" s="49" t="s">
+      <c r="F33" s="74"/>
+      <c r="G33" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="51"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="59"/>
       <c r="S33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
     <row r="34" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="56"/>
       <c r="K34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="52"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
     <row r="35" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="40"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="68"/>
       <c r="L35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M35" s="53" t="s">
+      <c r="M35" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="56" t="s">
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="58"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="55"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -2606,55 +2606,55 @@
       <c r="K36" s="1">
         <v>10</v>
       </c>
-      <c r="L36" s="93" t="s">
+      <c r="L36" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="M36" s="47" t="s">
+      <c r="M36" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="59"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="84" t="s">
+      <c r="N36" s="64"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="86"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="43"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
     </row>
     <row r="37" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J37" s="36" t="s">
+      <c r="J37" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="L37" s="94"/>
+      <c r="L37" s="61"/>
       <c r="M37" s="1">
         <v>1</v>
       </c>
@@ -2664,25 +2664,25 @@
       <c r="O37" s="16">
         <v>3</v>
       </c>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="89"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="46"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
     </row>
     <row r="38" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="95"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="62"/>
       <c r="M38" s="2" t="s">
         <v>59</v>
       </c>
@@ -2692,9 +2692,9 @@
       <c r="O38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="92"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="49"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -2755,87 +2755,87 @@
       <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="82" t="s">
+      <c r="E41" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="49" t="s">
+      <c r="F41" s="74"/>
+      <c r="G41" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="51"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="59"/>
       <c r="S41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
     <row r="42" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="56"/>
       <c r="K42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="41" t="s">
+      <c r="L42" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="52"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="38"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
     <row r="43" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="40"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="68"/>
       <c r="L43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="53" t="s">
+      <c r="M43" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="54"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="56" t="s">
+      <c r="N43" s="51"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="58"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="55"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -2871,55 +2871,55 @@
       <c r="K44" s="1">
         <v>10</v>
       </c>
-      <c r="L44" s="93" t="s">
+      <c r="L44" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="M44" s="47" t="s">
+      <c r="M44" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N44" s="59"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="84" t="s">
+      <c r="N44" s="64"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="86"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="43"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
     <row r="45" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="36" t="s">
+      <c r="I45" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J45" s="36" t="s">
+      <c r="J45" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="K45" s="36" t="s">
+      <c r="K45" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="L45" s="94"/>
+      <c r="L45" s="61"/>
       <c r="M45" s="1">
         <v>1</v>
       </c>
@@ -2929,26 +2929,26 @@
       <c r="O45" s="16">
         <v>3</v>
       </c>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="89"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="46"/>
       <c r="S45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="95"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="62"/>
       <c r="M46" s="2" t="s">
         <v>77</v>
       </c>
@@ -2958,9 +2958,9 @@
       <c r="O46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="92"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="49"/>
       <c r="S46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -3385,6 +3385,114 @@
     <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="132">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:R33"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:R41"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="P36:R38"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R30"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="P12:R14"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="L10:R10"/>
     <mergeCell ref="L26:R26"/>
@@ -3409,114 +3517,6 @@
     <mergeCell ref="P11:R11"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R14"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="P36:R38"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R30"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:R41"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:R1"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:R33"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.64583333333333337" right="0.61458333333333337" top="0.42708333333333331" bottom="0.30208333333333331" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3528,7 +3528,7 @@
   <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15:U15"/>
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3560,12 +3560,12 @@
       <c r="B1" s="23">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="68"/>
+      <c r="F1" s="76"/>
       <c r="G1" s="24" t="s">
         <v>23</v>
       </c>
@@ -3577,12 +3577,12 @@
       <c r="K1" s="23">
         <v>2</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67" t="s">
+      <c r="L1" s="84"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="68"/>
+      <c r="O1" s="76"/>
       <c r="P1" s="24" t="s">
         <v>24</v>
       </c>
@@ -3594,12 +3594,12 @@
       <c r="T1" s="23">
         <v>3</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="67" t="s">
+      <c r="U1" s="84"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="68"/>
+      <c r="X1" s="76"/>
       <c r="Y1" s="24" t="s">
         <v>25</v>
       </c>
@@ -3609,101 +3609,101 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="81" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="25"/>
       <c r="I2" s="21"/>
       <c r="J2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="81" t="s">
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="80"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="21"/>
       <c r="S2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="81" t="s">
+      <c r="U2" s="86"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="79"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="72" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="64"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="25"/>
       <c r="I3" s="21"/>
       <c r="J3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="72" t="s">
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="64"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="21"/>
       <c r="S3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="73" t="s">
+      <c r="T3" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="72" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="64"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="82"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="77"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="23">
         <v>1</v>
       </c>
@@ -3718,11 +3718,11 @@
       <c r="J4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="92"/>
       <c r="N4" s="23">
         <v>1</v>
       </c>
@@ -3737,11 +3737,11 @@
       <c r="S4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="76" t="s">
+      <c r="T4" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="70"/>
-      <c r="V4" s="77"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="92"/>
       <c r="W4" s="23">
         <v>1</v>
       </c>
@@ -3756,11 +3756,11 @@
       <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="31" t="s">
         <v>30</v>
       </c>
@@ -3775,11 +3775,11 @@
       <c r="J5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="80"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="79"/>
       <c r="N5" s="31" t="s">
         <v>59</v>
       </c>
@@ -3794,11 +3794,11 @@
       <c r="S5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="78" t="s">
+      <c r="T5" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="U5" s="79"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="31" t="s">
         <v>77</v>
       </c>
@@ -3813,11 +3813,11 @@
       <c r="A6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -3826,11 +3826,11 @@
       <c r="J6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="78" t="s">
+      <c r="K6" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="79"/>
-      <c r="M6" s="80"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -3839,11 +3839,11 @@
       <c r="S6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="78" t="s">
+      <c r="T6" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="U6" s="79"/>
-      <c r="V6" s="80"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="79"/>
       <c r="W6" s="29"/>
       <c r="X6" s="29"/>
       <c r="Y6" s="29"/>
@@ -3852,11 +3852,11 @@
       <c r="A7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -3865,11 +3865,11 @@
       <c r="J7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -3878,11 +3878,11 @@
       <c r="S7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="78" t="s">
+      <c r="T7" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="80"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="29"/>
       <c r="X7" s="29"/>
       <c r="Y7" s="29"/>
@@ -3891,11 +3891,11 @@
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
@@ -3904,11 +3904,11 @@
       <c r="J8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="79"/>
-      <c r="M8" s="80"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="2"/>
@@ -3917,11 +3917,11 @@
       <c r="S8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="78" t="s">
+      <c r="T8" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="U8" s="79"/>
-      <c r="V8" s="80"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="2"/>
@@ -3932,11 +3932,11 @@
       <c r="A9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
@@ -3945,11 +3945,11 @@
       <c r="J9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="2"/>
@@ -3958,11 +3958,11 @@
       <c r="S9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="78" t="s">
+      <c r="T9" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="79"/>
-      <c r="V9" s="80"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="2"/>
@@ -3973,11 +3973,11 @@
       <c r="A10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
@@ -3986,11 +3986,11 @@
       <c r="J10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="2"/>
@@ -3999,11 +3999,11 @@
       <c r="S10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="78" t="s">
+      <c r="T10" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="79"/>
-      <c r="V10" s="80"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="79"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="2"/>
@@ -4014,11 +4014,11 @@
       <c r="A11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
@@ -4027,11 +4027,11 @@
       <c r="J11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="78" t="s">
+      <c r="K11" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="2"/>
@@ -4040,11 +4040,11 @@
       <c r="S11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="78" t="s">
+      <c r="T11" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="79"/>
-      <c r="V11" s="80"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="2"/>
@@ -4055,11 +4055,11 @@
       <c r="A12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
@@ -4068,11 +4068,11 @@
       <c r="J12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="78" t="s">
+      <c r="K12" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="2"/>
@@ -4081,11 +4081,11 @@
       <c r="S12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="78" t="s">
+      <c r="T12" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="U12" s="79"/>
-      <c r="V12" s="80"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="79"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="2"/>
@@ -4096,11 +4096,11 @@
       <c r="A13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
@@ -4109,11 +4109,11 @@
       <c r="J13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="78" t="s">
+      <c r="K13" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="2"/>
@@ -4122,11 +4122,11 @@
       <c r="S13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="78" t="s">
+      <c r="T13" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="U13" s="79"/>
-      <c r="V13" s="80"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="2"/>
@@ -4137,11 +4137,11 @@
       <c r="A14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="1"/>
       <c r="F14" s="14"/>
       <c r="G14" s="17"/>
@@ -4150,11 +4150,11 @@
       <c r="J14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="78" t="s">
+      <c r="K14" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="1"/>
       <c r="O14" s="14"/>
       <c r="P14" s="17"/>
@@ -4163,11 +4163,11 @@
       <c r="S14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="78" t="s">
+      <c r="T14" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="1"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="17"/>
@@ -4178,53 +4178,52 @@
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="47" t="s">
+      <c r="C15" s="82"/>
+      <c r="D15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="61" t="s">
+      <c r="E15" s="82"/>
+      <c r="F15" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="62"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="32"/>
       <c r="I15" s="21"/>
       <c r="J15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="47" t="s">
+      <c r="L15" s="82"/>
+      <c r="M15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="61" t="s">
+      <c r="N15" s="82"/>
+      <c r="O15" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="62"/>
+      <c r="P15" s="95"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="21"/>
       <c r="S15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="63" t="s">
+      <c r="T15" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="U15" s="64"/>
-      <c r="V15" s="47" t="s">
+      <c r="U15" s="82"/>
+      <c r="V15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="W15" s="64"/>
-      <c r="X15" s="61" t="s">
+      <c r="W15" s="82"/>
+      <c r="X15" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="8"/>
+      <c r="Y15" s="95"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -4253,6 +4252,7 @@
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
+      <c r="Z16" s="8"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4290,12 +4290,12 @@
       <c r="B18" s="23">
         <v>1</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="68"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="24" t="s">
         <v>23</v>
       </c>
@@ -4307,12 +4307,12 @@
       <c r="K18" s="23">
         <v>2</v>
       </c>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67" t="s">
+      <c r="L18" s="84"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="O18" s="68"/>
+      <c r="O18" s="76"/>
       <c r="P18" s="24" t="s">
         <v>24</v>
       </c>
@@ -4324,12 +4324,12 @@
       <c r="T18" s="23">
         <v>3</v>
       </c>
-      <c r="U18" s="65"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="67" t="s">
+      <c r="U18" s="84"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="X18" s="68"/>
+      <c r="X18" s="76"/>
       <c r="Y18" s="24" t="s">
         <v>25</v>
       </c>
@@ -4338,101 +4338,101 @@
       <c r="A19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="81" t="s">
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="25"/>
       <c r="I19" s="21"/>
       <c r="J19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="69" t="s">
+      <c r="K19" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="81" t="s">
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="O19" s="79"/>
-      <c r="P19" s="80"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="79"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="21"/>
       <c r="S19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="T19" s="69" t="s">
+      <c r="T19" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="U19" s="70"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="81" t="s">
+      <c r="U19" s="86"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="80"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="79"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="72" t="s">
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="64"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="25"/>
       <c r="I20" s="21"/>
       <c r="J20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="73" t="s">
+      <c r="K20" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="72" t="s">
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="66"/>
-      <c r="P20" s="64"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="82"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="21"/>
       <c r="S20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="73" t="s">
+      <c r="T20" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="U20" s="74"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="72" t="s">
+      <c r="U20" s="89"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="64"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="82"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="77"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="23">
         <v>1</v>
       </c>
@@ -4447,11 +4447,11 @@
       <c r="J21" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="76" t="s">
+      <c r="K21" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="70"/>
-      <c r="M21" s="77"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="92"/>
       <c r="N21" s="23">
         <v>1</v>
       </c>
@@ -4466,11 +4466,11 @@
       <c r="S21" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="76" t="s">
+      <c r="T21" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="70"/>
-      <c r="V21" s="77"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="92"/>
       <c r="W21" s="23">
         <v>1</v>
       </c>
@@ -4485,11 +4485,11 @@
       <c r="A22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="31" t="s">
         <v>30</v>
       </c>
@@ -4504,11 +4504,11 @@
       <c r="J22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="78" t="s">
+      <c r="K22" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
       <c r="N22" s="31" t="s">
         <v>59</v>
       </c>
@@ -4523,11 +4523,11 @@
       <c r="S22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="78" t="s">
+      <c r="T22" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="79"/>
-      <c r="V22" s="80"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="79"/>
       <c r="W22" s="31" t="s">
         <v>77</v>
       </c>
@@ -4542,11 +4542,11 @@
       <c r="A23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -4555,11 +4555,11 @@
       <c r="J23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="78" t="s">
+      <c r="K23" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="79"/>
-      <c r="M23" s="80"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
@@ -4568,11 +4568,11 @@
       <c r="S23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="T23" s="78" t="s">
+      <c r="T23" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="U23" s="79"/>
-      <c r="V23" s="80"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="79"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
       <c r="Y23" s="29"/>
@@ -4581,11 +4581,11 @@
       <c r="A24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -4594,11 +4594,11 @@
       <c r="J24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="78" t="s">
+      <c r="K24" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="79"/>
-      <c r="M24" s="80"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
@@ -4607,11 +4607,11 @@
       <c r="S24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="78" t="s">
+      <c r="T24" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="U24" s="79"/>
-      <c r="V24" s="80"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="79"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
       <c r="Y24" s="29"/>
@@ -4620,11 +4620,11 @@
       <c r="A25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
@@ -4633,11 +4633,11 @@
       <c r="J25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="78" t="s">
+      <c r="K25" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="2"/>
@@ -4646,11 +4646,11 @@
       <c r="S25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T25" s="78" t="s">
+      <c r="T25" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="U25" s="79"/>
-      <c r="V25" s="80"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="79"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="2"/>
@@ -4659,11 +4659,11 @@
       <c r="A26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
@@ -4672,11 +4672,11 @@
       <c r="J26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="78" t="s">
+      <c r="K26" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="79"/>
-      <c r="M26" s="80"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="79"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="2"/>
@@ -4685,11 +4685,11 @@
       <c r="S26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="78" t="s">
+      <c r="T26" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="U26" s="79"/>
-      <c r="V26" s="80"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="79"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="2"/>
@@ -4698,11 +4698,11 @@
       <c r="A27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="2"/>
@@ -4711,11 +4711,11 @@
       <c r="J27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="78" t="s">
+      <c r="K27" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="79"/>
-      <c r="M27" s="80"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="79"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="2"/>
@@ -4724,11 +4724,11 @@
       <c r="S27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T27" s="78" t="s">
+      <c r="T27" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="U27" s="79"/>
-      <c r="V27" s="80"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="79"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="2"/>
@@ -4737,11 +4737,11 @@
       <c r="A28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
@@ -4750,11 +4750,11 @@
       <c r="J28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="78" t="s">
+      <c r="K28" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="79"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="2"/>
@@ -4763,11 +4763,11 @@
       <c r="S28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="78" t="s">
+      <c r="T28" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="U28" s="79"/>
-      <c r="V28" s="80"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="79"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="2"/>
@@ -4776,11 +4776,11 @@
       <c r="A29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
@@ -4789,11 +4789,11 @@
       <c r="J29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="78" t="s">
+      <c r="K29" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="79"/>
-      <c r="M29" s="80"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="79"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="2"/>
@@ -4802,11 +4802,11 @@
       <c r="S29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="78" t="s">
+      <c r="T29" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="U29" s="79"/>
-      <c r="V29" s="80"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="79"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="2"/>
@@ -4815,11 +4815,11 @@
       <c r="A30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
@@ -4828,11 +4828,11 @@
       <c r="J30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="78" t="s">
+      <c r="K30" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="L30" s="79"/>
-      <c r="M30" s="80"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="79"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="2"/>
@@ -4841,11 +4841,11 @@
       <c r="S30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="T30" s="78" t="s">
+      <c r="T30" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="U30" s="79"/>
-      <c r="V30" s="80"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="79"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="2"/>
@@ -4854,11 +4854,11 @@
       <c r="A31" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="1"/>
       <c r="F31" s="14"/>
       <c r="G31" s="17"/>
@@ -4867,11 +4867,11 @@
       <c r="J31" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="78" t="s">
+      <c r="K31" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="79"/>
-      <c r="M31" s="80"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="79"/>
       <c r="N31" s="1"/>
       <c r="O31" s="14"/>
       <c r="P31" s="17"/>
@@ -4880,11 +4880,11 @@
       <c r="S31" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="T31" s="78" t="s">
+      <c r="T31" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="U31" s="79"/>
-      <c r="V31" s="80"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="79"/>
       <c r="W31" s="1"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="17"/>
@@ -4893,52 +4893,52 @@
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="47" t="s">
+      <c r="C32" s="82"/>
+      <c r="D32" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="61" t="s">
+      <c r="E32" s="82"/>
+      <c r="F32" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="62"/>
+      <c r="G32" s="95"/>
       <c r="H32" s="32"/>
       <c r="I32" s="21"/>
       <c r="J32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="63" t="s">
+      <c r="K32" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="64"/>
-      <c r="M32" s="47" t="s">
+      <c r="L32" s="82"/>
+      <c r="M32" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="64"/>
-      <c r="O32" s="61" t="s">
+      <c r="N32" s="82"/>
+      <c r="O32" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="P32" s="62"/>
+      <c r="P32" s="95"/>
       <c r="Q32" s="32"/>
       <c r="R32" s="21"/>
       <c r="S32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T32" s="63" t="s">
+      <c r="T32" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="U32" s="64"/>
-      <c r="V32" s="47" t="s">
+      <c r="U32" s="82"/>
+      <c r="V32" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="W32" s="64"/>
-      <c r="X32" s="61" t="s">
+      <c r="W32" s="82"/>
+      <c r="X32" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="Y32" s="62"/>
+      <c r="Y32" s="95"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5008,53 +5008,42 @@
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="T24:V24"/>
     <mergeCell ref="T21:V21"/>
     <mergeCell ref="T22:V22"/>
     <mergeCell ref="W19:Y19"/>
@@ -5079,17 +5068,18 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="K29:M29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T14:V14"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="B15:C15"/>
@@ -5102,32 +5092,42 @@
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
